--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/correct_predictions_67.xlsx
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -866,52 +866,52 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>13-18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -986,52 +986,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,31 +1127,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>16-25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/correct_predictions_67.xlsx
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -866,52 +866,52 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13-18</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -986,52 +986,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>13-18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,31 +1127,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16-25</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
